--- a/RollerCoster Pivot.xlsx
+++ b/RollerCoster Pivot.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Career\Top Mentor\Top Mentor Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2392C1FB-3DF0-4D1A-B552-22675A8603BB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A0BC78-9AC5-4E11-AF17-0BBA9BF00BFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{7B924FB5-4699-465E-9CD9-C326EDDD3575}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="4" xr2:uid="{7B924FB5-4699-465E-9CD9-C326EDDD3575}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Main Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Type" sheetId="4" r:id="rId2"/>
+    <sheet name="Design" sheetId="5" r:id="rId3"/>
+    <sheet name="Year Wise Roller Coaster speed" sheetId="6" r:id="rId4"/>
+    <sheet name="Type &amp; Design wise Avg Speed" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="6" r:id="rId7"/>
+    <pivotCache cacheId="20" r:id="rId8"/>
+    <pivotCache cacheId="24" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="89">
   <si>
     <t>Roller Coaster</t>
   </si>
@@ -295,6 +300,9 @@
   <si>
     <t>Sum of Opened</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -353,18 +361,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -391,41 +388,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[RollerCoster Pivot.xlsx]Sheet3!PivotTable1</c:name>
+    <c:name>[RollerCoster Pivot.xlsx]Type!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>World</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Adventure</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -569,8 +536,886 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Type!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Type!$D$4:$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Steel</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wood</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Type!$E$4:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>42.721739130434777</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-634E-4DC0-9E38-3B513CFBF017}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="460693312"/>
+        <c:axId val="460695936"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="460693312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460695936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="460695936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="460693312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[RollerCoster Pivot.xlsx]Design!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Design!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Design!$D$4:$D$9</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Flying</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Inverted</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Sit Down</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Stand Up</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Suspended</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Design!$E$4:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.566666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.102439024390236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A42-4635-A2AD-040BDC9633D2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="365577856"/>
+        <c:axId val="365578184"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="365577856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365578184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="365578184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="365577856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[RollerCoster Pivot.xlsx]Year Wise Roller Coaster speed!PivotTable5</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -637,7 +1482,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$4</c:f>
+              <c:f>'Year Wise Roller Coaster speed'!$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -657,234 +1502,293 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet3!$A$5:$A$41</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="35"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Boomerang</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Cobra</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Colossus</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Corkscrew</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Crazy Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Enigma</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Express</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Fantasy Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>G Force</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Irn-Bru Revolution</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Jungle Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Knightmare</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Magic Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Millennium Roller Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>New Roller Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Oblivion</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Pepsi Max Big One</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Rage</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Rat</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Rattlesnake</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Rhino Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Rita - Queen of Speed</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Roller Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Speed: No Limits</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Stealth</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Tornado</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Twist and Shout</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Twister</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>Ultimate</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>Velocity</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Wall's Twister Ride</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>Whirlwind</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Wild Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>Wipeout</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>X:\ No Way Out</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Sit Down</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Year Wise Roller Coaster speed'!$E$4:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>Air</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boomerang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cobra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colossus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corkscrew</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Crazy Mouse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Enigma</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Express</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fantasy Mouse</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>G Force</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Grand National</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Infusion</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Irn-Bru Revolution</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jubilee Odyssey</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jungle Coaster</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Knightmare</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Kumali</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Magic Mouse</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Megafobia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Millennium Roller Coaster</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Nemesis</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nemesis Inferno</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>New Roller Coaster</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Oblivion</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Pepsi Max Big One</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Rage</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Rat</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Rattlesnake</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Rhino Coaster</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Rita - Queen of Speed</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Roller Coaster</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Shockwave</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Speed: No Limits</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Stealth</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Tornado</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Tsunami</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Twist and Shout</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Twister</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Vampire</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Velocity</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Wall's Twister Ride</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Whirlwind</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Wild Mouse</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Wipeout</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>X:\ No Way Out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$5:$B$41</c:f>
+              <c:f>'Year Wise Roller Coaster speed'!$F$4:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>31.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>29.1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>29.1</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43.5</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49.7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="13">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="15">
                   <c:v>43.5</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>54.9</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>29.1</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>55.9</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="20">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>26.8</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="23">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="24">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="25">
                   <c:v>43.5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>28.5</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="29">
                   <c:v>61.1</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="30">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44.7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>44.7</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>29.1</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37.299999999999997</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="44">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="45">
                   <c:v>27.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -892,7 +1796,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-983A-4B3D-BC9D-598DF41A4803}"/>
+              <c16:uniqueId val="{00000001-BFA8-43B6-B3D9-DDF86251E6DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -901,7 +1805,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$4</c:f>
+              <c:f>'Year Wise Roller Coaster speed'!$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -935,234 +1839,293 @@
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Sheet3!$A$5:$A$41</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="35"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Boomerang</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Cobra</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Colossus</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Corkscrew</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Crazy Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Enigma</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Express</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Fantasy Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>G Force</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Irn-Bru Revolution</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Jungle Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>Knightmare</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Magic Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Millennium Roller Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>New Roller Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Oblivion</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Pepsi Max Big One</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Rage</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Rat</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Rattlesnake</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Rhino Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Rita - Queen of Speed</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Roller Coaster</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Speed: No Limits</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Stealth</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Tornado</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Twist and Shout</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Twister</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>Ultimate</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>Velocity</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Wall's Twister Ride</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>Whirlwind</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>Wild Mouse</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>Wipeout</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>X:\ No Way Out</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Sit Down</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>'Year Wise Roller Coaster speed'!$E$4:$E$50</c:f>
+              <c:strCache>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>Air</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Boomerang</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Cobra</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Colossus</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Corkscrew</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Crazy Mouse</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Enigma</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Express</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Fantasy Mouse</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>G Force</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Grand National</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Infusion</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Irn-Bru Revolution</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Jubilee Odyssey</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Jungle Coaster</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Knightmare</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Kumali</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Magic Mouse</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Megafobia</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Millennium Roller Coaster</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Nemesis</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Nemesis Inferno</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>New Roller Coaster</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Oblivion</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Pepsi Max Big One</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Rage</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Rat</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Rattlesnake</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Rhino Coaster</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Rita - Queen of Speed</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Roller Coaster</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Shockwave</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Speed: No Limits</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Stealth</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Tornado</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Tsunami</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Twist and Shout</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Twister</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Ultimate</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Vampire</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Velocity</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Wall's Twister Ride</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Whirlwind</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Wild Mouse</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Wipeout</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>X:\ No Way Out</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$5:$C$41</c:f>
+              <c:f>'Year Wise Roller Coaster speed'!$G$4:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1993</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2006</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2002</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>3963</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>3998</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>1995</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>2006</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>1979</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>2004</c:v>
+                  <c:v>1935</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>1999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1998</c:v>
-                </c:pt>
                 <c:pt idx="16">
-                  <c:v>1994</c:v>
+                  <c:v>2006</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2007</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2005</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="27">
                   <c:v>1998</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="28">
                   <c:v>1992</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2005</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1991</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2005</c:v>
                 </c:pt>
                 <c:pt idx="30">
+                  <c:v>5865</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>1998</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="35">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>2003</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="37">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>1997</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="44">
                   <c:v>2007</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="45">
                   <c:v>1996</c:v>
                 </c:pt>
               </c:numCache>
@@ -1170,7 +2133,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-983A-4B3D-BC9D-598DF41A4803}"/>
+              <c16:uniqueId val="{00000003-BFA8-43B6-B3D9-DDF86251E6DF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1184,11 +2147,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="467802824"/>
-        <c:axId val="467808072"/>
+        <c:axId val="531957296"/>
+        <c:axId val="531950080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="467802824"/>
+        <c:axId val="531957296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1231,7 +2194,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467808072"/>
+        <c:crossAx val="531950080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1239,7 +2202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="467808072"/>
+        <c:axId val="531950080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +2253,549 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="467802824"/>
+        <c:crossAx val="531957296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[RollerCoster Pivot.xlsx]Type &amp; Design wise Avg Speed!PivotTable6</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Type &amp; Design wise Avg Speed'!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Type &amp; Design wise Avg Speed'!$E$4:$E$15</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Steel</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Steel</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Steel</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Wood</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Steel</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Steel</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Flying</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Inverted</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Sit Down</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Stand Up</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Suspended</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Type &amp; Design wise Avg Speed'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>46.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.566666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.005405405405405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B368-4A3A-8232-E85F2065EE08}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="541594496"/>
+        <c:axId val="541594824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="541594496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541594824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="541594824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541594496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1433,6 +2938,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1936,27 +3561,1659 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980F0263-AE2B-4203-A5FB-DA4B82DCF2DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF90FBE-8CEE-4C93-BE0B-F4F48F6C4DF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7737D1-0CBF-483D-B49F-937ECAF88EA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A173FE9-A12B-4489-A191-0C9AD1267F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{621EADDD-1318-4CC9-8A7D-D41FD8148BAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1978,11 +5235,62 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44259.787745833331" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{898425BB-3D4F-402F-9D3D-D2416A13BADA}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.491299652778" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{845EB81A-E08B-4D58-9EC9-9FAB3A61A732}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G51" sheet="Sheet1"/>
+    <worksheetSource ref="A1:B51" sheet="Type"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="2">
+    <cacheField name="Type" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Steel"/>
+        <s v="Wood"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Speed ( mph )" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.8" maxValue="80"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.496238888889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{59C1C9F0-2546-4101-B340-46C7D579582C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:B51" sheet="Design"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Design" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Flying"/>
+        <s v="Sit Down"/>
+        <s v="Inverted"/>
+        <s v="Stand Up"/>
+        <s v="Suspended"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Speed ( mph )" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.8" maxValue="80"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.499820949073" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{783F26C7-341F-4A35-BAE0-AC74FED78908}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C51" sheet="Year Wise Roller Coaster speed"/>
+  </cacheSource>
+  <cacheFields count="3">
     <cacheField name="Roller Coaster" numFmtId="0">
       <sharedItems count="46">
         <s v="Air"/>
@@ -2033,9 +5341,27 @@
         <s v="X:\ No Way Out"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Amusement Park" numFmtId="0">
-      <sharedItems/>
+    <cacheField name="Opened" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1932" maxValue="2007"/>
     </cacheField>
+    <cacheField name="Speed ( mph )" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.8" maxValue="80"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Prajwal Ghadi" refreshedDate="44266.503274074072" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="50" xr:uid="{18821345-1068-4533-8DA6-355EB53CFA48}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C51" sheet="Type &amp; Design wise Avg Speed"/>
+  </cacheSource>
+  <cacheFields count="3">
     <cacheField name="Type" numFmtId="0">
       <sharedItems count="2">
         <s v="Steel"/>
@@ -2051,12 +5377,6 @@
         <s v="Suspended"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Status" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Opened" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1932" maxValue="2007"/>
-    </cacheField>
     <cacheField name="Speed ( mph )" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26.8" maxValue="80"/>
     </cacheField>
@@ -2073,461 +5393,1098 @@
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
   <r>
     <x v="0"/>
-    <s v="Alton Towers"/>
+    <n v="46.6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="31.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="49.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="54.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="55.9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="47.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="26.8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28.5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="61.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="44.7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="37.299999999999997"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="27.7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <x v="0"/>
+    <n v="46.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="31.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="49.7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="54.9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="55.9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="47.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="26.8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="61.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="44.7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="37.299999999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="27.7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
+    <x v="0"/>
+    <n v="2002"/>
+    <n v="46.6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="1993"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="2006"/>
+    <n v="31.1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="2002"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1980"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="1983"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="1998"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="2000"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="1995"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="2006"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="2000"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="2005"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="1935"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="2007"/>
+    <n v="49.7"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <n v="1979"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <n v="2002"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <n v="2004"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <n v="2007"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <n v="2006"/>
+    <n v="54.9"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <n v="2007"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <n v="1996"/>
+    <n v="48"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <n v="1999"/>
+    <n v="55.9"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <n v="1994"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <n v="2003"/>
+    <n v="47.8"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <n v="1988"/>
+    <n v="26.8"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <n v="1998"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <n v="1994"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <n v="2007"/>
+    <n v="43.5"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <n v="2005"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <n v="1998"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <n v="1992"/>
+    <n v="28.5"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <n v="2005"/>
+    <n v="61.1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1932"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="1933"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <n v="2000"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <n v="1994"/>
+    <n v="53"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <n v="2006"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <n v="2006"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <n v="1998"/>
+    <n v="44.7"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <n v="2004"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <n v="2003"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="2001"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1991"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="2002"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <n v="2005"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <n v="1998"/>
+    <n v="29.1"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <n v="2003"/>
+    <n v="37.299999999999997"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <n v="1997"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <n v="2007"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <n v="1996"/>
+    <n v="27.7"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="50">
+  <r>
     <x v="0"/>
     <x v="0"/>
-    <s v="Operating"/>
-    <n v="2002"/>
     <n v="46.6"/>
   </r>
   <r>
-    <x v="1"/>
-    <s v="Pleasure Island Family Theme Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1993"/>
     <n v="47"/>
   </r>
   <r>
-    <x v="2"/>
-    <s v="Paultons Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2006"/>
     <n v="31.1"/>
   </r>
   <r>
-    <x v="3"/>
-    <s v="Thorpe Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2002"/>
     <n v="45"/>
   </r>
   <r>
-    <x v="4"/>
-    <s v="Alton Towers"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1980"/>
     <n v="40"/>
   </r>
   <r>
-    <x v="4"/>
-    <s v="Flamingo Land Theme Park &amp; Zoo"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1983"/>
     <n v="40"/>
   </r>
   <r>
-    <x v="5"/>
-    <s v="South Pier"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1998"/>
     <n v="29.1"/>
   </r>
   <r>
-    <x v="5"/>
-    <s v="Brighton Pier"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2000"/>
     <n v="29.1"/>
   </r>
   <r>
-    <x v="6"/>
-    <s v="Pleasurewood Hills"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1995"/>
     <n v="34"/>
   </r>
   <r>
-    <x v="7"/>
-    <s v="M&amp;Ds Scotland's Theme Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2006"/>
     <n v="28"/>
   </r>
   <r>
-    <x v="8"/>
-    <s v="Fantasy Island"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2000"/>
     <n v="29.1"/>
   </r>
   <r>
-    <x v="9"/>
-    <s v="Drayton Manor Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2005"/>
     <n v="43.5"/>
   </r>
   <r>
-    <x v="10"/>
-    <s v="Pleasure Beach, Blackpool"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1935"/>
     <n v="40"/>
   </r>
   <r>
-    <x v="11"/>
-    <s v="Pleasure Beach, Blackpool"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Operating"/>
-    <n v="2007"/>
     <n v="49.7"/>
   </r>
   <r>
-    <x v="12"/>
-    <s v="Pleasure Beach, Blackpool"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1979"/>
     <n v="45"/>
   </r>
   <r>
-    <x v="13"/>
-    <s v="Fantasy Island"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Operating"/>
-    <n v="2002"/>
     <n v="63"/>
   </r>
   <r>
-    <x v="14"/>
-    <s v="Legoland Windsor"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2004"/>
     <n v="35"/>
   </r>
   <r>
-    <x v="15"/>
-    <s v="Camelot Theme Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2007"/>
     <n v="43.5"/>
   </r>
   <r>
-    <x v="16"/>
-    <s v="Flamingo Land Theme Park &amp; Zoo"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Operating"/>
-    <n v="2006"/>
     <n v="54.9"/>
   </r>
   <r>
-    <x v="17"/>
-    <s v="Brean Leisure Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2007"/>
     <n v="29.1"/>
   </r>
   <r>
-    <x v="18"/>
-    <s v="Oakwood Theme Park"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1996"/>
     <n v="48"/>
   </r>
   <r>
-    <x v="19"/>
-    <s v="Fantasy Island"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1999"/>
     <n v="55.9"/>
   </r>
   <r>
-    <x v="20"/>
-    <s v="Alton Towers"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Operating"/>
-    <n v="1994"/>
     <n v="50"/>
   </r>
   <r>
-    <x v="21"/>
-    <s v="Thorpe Park"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Operating"/>
-    <n v="2003"/>
     <n v="47.8"/>
   </r>
   <r>
-    <x v="22"/>
-    <s v="New MetroLand"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1988"/>
     <n v="26.8"/>
   </r>
   <r>
-    <x v="23"/>
-    <s v="Alton Towers"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1998"/>
     <n v="68"/>
   </r>
   <r>
-    <x v="24"/>
-    <s v="Pleasure Beach, Blackpool"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1994"/>
     <n v="74"/>
   </r>
   <r>
-    <x v="25"/>
-    <s v="Adventure Island"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2007"/>
     <n v="43.5"/>
   </r>
   <r>
-    <x v="26"/>
-    <s v="Loudoun Castle"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2005"/>
     <n v="28"/>
   </r>
   <r>
-    <x v="27"/>
-    <s v="Chessington World of Adventures"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1998"/>
     <n v="28"/>
   </r>
   <r>
-    <x v="28"/>
-    <s v="West Midlands Safari Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1992"/>
     <n v="28.5"/>
   </r>
   <r>
-    <x v="29"/>
-    <s v="Alton Towers"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2005"/>
     <n v="61.1"/>
   </r>
   <r>
-    <x v="30"/>
-    <s v="Great Yarmouth Pleasure Beach"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1932"/>
     <n v="45"/>
   </r>
   <r>
-    <x v="30"/>
-    <s v="Pleasure Beach, Blackpool"/>
     <x v="1"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1933"/>
     <n v="35"/>
   </r>
   <r>
-    <x v="30"/>
-    <s v="Wicksteed Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2000"/>
     <n v="28"/>
   </r>
   <r>
-    <x v="31"/>
-    <s v="Drayton Manor Park"/>
     <x v="0"/>
     <x v="3"/>
-    <s v="Operating"/>
-    <n v="1994"/>
     <n v="53"/>
   </r>
   <r>
-    <x v="32"/>
-    <s v="Oakwood Theme Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2006"/>
     <n v="59"/>
   </r>
   <r>
-    <x v="33"/>
-    <s v="Thorpe Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2006"/>
     <n v="80"/>
   </r>
   <r>
-    <x v="34"/>
-    <s v="M&amp;Ds Scotland's Theme Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1998"/>
     <n v="44.7"/>
   </r>
   <r>
-    <x v="35"/>
-    <s v="M&amp;Ds Scotland's Theme Park"/>
     <x v="0"/>
     <x v="2"/>
-    <s v="Operating"/>
-    <n v="2004"/>
     <n v="38"/>
   </r>
   <r>
-    <x v="36"/>
-    <s v="Loudoun Castle"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2003"/>
     <n v="41"/>
   </r>
   <r>
-    <x v="37"/>
-    <s v="Lightwater Valley"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2001"/>
     <n v="29.1"/>
   </r>
   <r>
-    <x v="38"/>
-    <s v="Lightwater Valley"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1991"/>
     <n v="50"/>
   </r>
   <r>
-    <x v="39"/>
-    <s v="Chessington World of Adventures"/>
     <x v="0"/>
     <x v="4"/>
-    <s v="Operating"/>
-    <n v="2002"/>
     <n v="45"/>
   </r>
   <r>
-    <x v="40"/>
-    <s v="Flamingo Land Theme Park &amp; Zoo"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2005"/>
     <n v="54"/>
   </r>
   <r>
-    <x v="41"/>
-    <s v="West Midlands Safari Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1998"/>
     <n v="29.1"/>
   </r>
   <r>
-    <x v="42"/>
-    <s v="Camelot Theme Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2003"/>
     <n v="37.299999999999997"/>
   </r>
   <r>
-    <x v="43"/>
-    <s v="Flamingo Land Theme Park &amp; Zoo"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1997"/>
     <n v="28"/>
   </r>
   <r>
-    <x v="44"/>
-    <s v="Pleasurewood Hills"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="2007"/>
     <n v="47"/>
   </r>
   <r>
-    <x v="45"/>
-    <s v="Thorpe Park"/>
     <x v="0"/>
     <x v="1"/>
-    <s v="Operating"/>
-    <n v="1996"/>
     <n v="27.7"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D3EFF5C7-AD77-450D-A84D-217FAC921AD5}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A4:C41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EA0DF7AD-DD01-4CFC-AAA6-431D1492AA58}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D3:E6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Speed ( mph )" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9169878F-1171-4977-827A-DBC1FDE5CD12}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="D3:E9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="2">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Speed ( mph )" fld="1" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{144E8BCD-0974-42CF-BF0E-6DD4168BB554}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E3:G50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
       <items count="47">
         <item x="0"/>
@@ -2579,139 +6536,149 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item h="1" x="3"/>
-        <item h="1" x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="3"/>
+  <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="37">
+  <rowItems count="47">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
+    <i>
       <x v="3"/>
     </i>
-    <i r="1">
+    <i>
       <x v="4"/>
     </i>
-    <i r="1">
+    <i>
       <x v="5"/>
     </i>
-    <i r="1">
+    <i>
       <x v="6"/>
     </i>
-    <i r="1">
+    <i>
       <x v="7"/>
     </i>
-    <i r="1">
+    <i>
       <x v="8"/>
     </i>
-    <i r="1">
+    <i>
       <x v="9"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
       <x v="12"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
       <x v="14"/>
     </i>
-    <i r="1">
+    <i>
       <x v="15"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
       <x v="17"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
       <x v="19"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
       <x v="22"/>
     </i>
-    <i r="1">
+    <i>
       <x v="23"/>
     </i>
-    <i r="1">
+    <i>
       <x v="24"/>
     </i>
-    <i r="1">
+    <i>
       <x v="25"/>
     </i>
-    <i r="1">
+    <i>
       <x v="26"/>
     </i>
-    <i r="1">
+    <i>
       <x v="27"/>
     </i>
-    <i r="1">
+    <i>
       <x v="28"/>
     </i>
-    <i r="1">
+    <i>
       <x v="29"/>
     </i>
-    <i r="1">
+    <i>
       <x v="30"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
       <x v="32"/>
     </i>
-    <i r="1">
+    <i>
       <x v="33"/>
     </i>
-    <i r="1">
+    <i>
       <x v="34"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
       <x v="36"/>
     </i>
-    <i r="1">
+    <i>
       <x v="37"/>
     </i>
-    <i r="1">
+    <i>
       <x v="38"/>
     </i>
-    <i r="1">
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
       <x v="40"/>
     </i>
-    <i r="1">
+    <i>
       <x v="41"/>
     </i>
-    <i r="1">
+    <i>
       <x v="42"/>
     </i>
-    <i r="1">
+    <i>
       <x v="43"/>
     </i>
-    <i r="1">
+    <i>
       <x v="44"/>
     </i>
-    <i r="1">
+    <i>
       <x v="45"/>
     </i>
     <i t="grand">
@@ -2729,12 +6696,9 @@
       <x v="1"/>
     </i>
   </colItems>
-  <pageFields count="1">
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
   <dataFields count="2">
-    <dataField name="Average of Speed ( mph )" fld="6" subtotal="average" baseField="3" baseItem="2"/>
-    <dataField name="Sum of Opened" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Average of Speed ( mph )" fld="2" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Opened" fld="1" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="2">
     <chartFormat chart="0" format="0" series="1">
@@ -2746,7 +6710,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -2768,20 +6732,146 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{21DB96AE-95E9-4841-AB70-A76DD6191767}" name="Table1" displayName="Table1" ref="A1:G2">
-  <autoFilter ref="A1:G2" xr:uid="{5ADAF1A0-4C1D-4BF7-B4D6-BAF47874E78C}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{0A939923-B41C-4844-BA69-F38B322FE49A}" name="Roller Coaster" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{C630A28E-4F19-4C10-A08A-7FB63DAFCCC8}" name="Amusement Park"/>
-    <tableColumn id="3" xr3:uid="{7DE01EE0-DB59-48A3-837B-31420241916C}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{61D3BEBD-FEFD-4CA8-9883-8F96602DEEB7}" name="Design"/>
-    <tableColumn id="5" xr3:uid="{90276BED-8AC2-4C70-BF89-C406F437A6F8}" name="Status"/>
-    <tableColumn id="6" xr3:uid="{39352697-A3F3-4FB1-8163-BEB0EDFEC4E8}" name="Opened"/>
-    <tableColumn id="7" xr3:uid="{02F6A991-105D-4C5D-91C2-3985E2750DA2}" name="Speed ( mph )" totalsRowFunction="sum"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{628E245E-4806-47A3-9907-07ECC31DEF2F}" name="PivotTable6" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="E3:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="1"/>
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Speed ( mph )" fld="2" subtotal="average" baseField="1" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3081,9 +7171,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9034E99-5CD5-40DA-8CDA-5F4C005EC9FE}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A38" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G1" activeCellId="1" sqref="C1:D51 G1:G51"/>
     </sheetView>
   </sheetViews>
@@ -3098,7 +7188,7 @@
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3121,7 +7211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3144,7 +7234,7 @@
         <v>46.6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3167,7 +7257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -3190,7 +7280,7 @@
         <v>31.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -3213,7 +7303,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -3236,7 +7326,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -3259,7 +7349,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -3282,7 +7372,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -3305,7 +7395,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>24</v>
       </c>
@@ -3328,7 +7418,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
@@ -3351,7 +7441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
@@ -3374,7 +7464,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -3397,7 +7487,7 @@
         <v>43.5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -3420,7 +7510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -3443,7 +7533,7 @@
         <v>49.7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>37</v>
       </c>
@@ -3464,6 +7554,9 @@
       </c>
       <c r="G16" s="1">
         <v>45</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -4277,522 +8370,2606 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBCEA55A-6C7B-49B7-A82E-85D3FE5D29B1}">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1AC756-493F-4619-9D49-B09C0FC0203F}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>2002</v>
-      </c>
-      <c r="G2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3">
+        <v>42.721739130434777</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
         <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="3">
+        <v>42.663999999999994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1">
+        <v>27.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49734C4D-9636-460E-8762-BCE6E54D0970}">
-  <dimension ref="A2:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CD5CB4C-9ED5-4517-A4A1-8E5E0C85615D}">
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3">
+        <v>50.566666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3">
+        <v>41.102439024390236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="3">
+        <v>42.663999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1">
+        <v>49.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="1">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="1">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="1">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="1">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" s="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" s="1">
+        <v>27.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6949EAD-BC1B-4AFF-A485-0F238551D85C}">
+  <dimension ref="A1:G51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1993</v>
+      </c>
+      <c r="C3" s="1">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="3">
+        <v>46.6</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3">
+        <v>47</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1980</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3">
+        <v>31.1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1983</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
+        <v>40</v>
+      </c>
+      <c r="G8" s="3">
+        <v>3963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>34</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2006</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="3">
+        <v>28</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1935</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3">
+        <v>40</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C15" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="3">
+        <v>49.7</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1979</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>63</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3">
+        <v>63</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="3">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="3">
+        <v>54.9</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C22" s="1">
+        <v>48</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="3">
+        <v>48</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C23" s="1">
+        <v>55.9</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3">
+        <v>55.9</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="3">
+        <v>50</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2003</v>
+      </c>
+      <c r="C25" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="3">
+        <v>47.8</v>
+      </c>
+      <c r="G25" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="3">
+        <v>26.8</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C27" s="1">
+        <v>68</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="3">
+        <v>68</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C28" s="1">
+        <v>74</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="3">
+        <v>74</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="3">
+        <v>43.5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2005</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="3">
+        <v>28</v>
+      </c>
+      <c r="G30" s="3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="3">
+        <v>28</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1992</v>
+      </c>
+      <c r="C32" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C33" s="1">
+        <v>61.1</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="3">
+        <v>61.1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="1">
+        <v>1932</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
+        <v>36</v>
+      </c>
+      <c r="G34" s="3">
+        <v>5865</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1">
+        <v>1933</v>
+      </c>
+      <c r="C35" s="1">
+        <v>35</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="3">
+        <v>53</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>28</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" s="3">
+        <v>59</v>
+      </c>
+      <c r="G36" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1994</v>
+      </c>
+      <c r="C37" s="1">
+        <v>53</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="3">
+        <v>80</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C38" s="1">
+        <v>59</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44.7</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2006</v>
+      </c>
+      <c r="C39" s="1">
+        <v>80</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="3">
+        <v>38</v>
+      </c>
+      <c r="G39" s="3">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44.7</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="3">
+        <v>41</v>
+      </c>
+      <c r="G40" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C41" s="1">
+        <v>38</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="3">
+        <v>50</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2001</v>
+      </c>
+      <c r="C43" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C44" s="1">
+        <v>50</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F44" s="3">
+        <v>54</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="3">
+        <v>29.1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C46" s="1">
+        <v>54</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F46" s="3">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="G46" s="3">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1998</v>
+      </c>
+      <c r="C47" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47" s="3">
+        <v>28</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="1">
+        <v>2003</v>
+      </c>
+      <c r="C48" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="3">
+        <v>47</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1997</v>
+      </c>
+      <c r="C49" s="1">
+        <v>28</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F49" s="3">
+        <v>27.7</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C50" s="1">
+        <v>47</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F50" s="3">
+        <v>42.663999999999994</v>
+      </c>
+      <c r="G50" s="3">
+        <v>99772</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1996</v>
+      </c>
+      <c r="C51" s="1">
+        <v>27.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB49F4B8-F277-46E0-999E-79DC0C2A4E1E}">
+  <dimension ref="A1:F51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>47</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>85</v>
       </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>31.1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>40</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="3">
+        <v>50.566666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>40</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="3">
+        <v>50.566666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3">
+        <v>41.102439024390243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3">
         <v>41.005405405405405</v>
       </c>
-      <c r="C5" s="3">
-        <v>73962</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43.5</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1">
+        <v>40</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1">
+        <v>49.7</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="3">
+        <v>42.663999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>54.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="1">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="1">
+        <v>61.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="1">
+        <v>44.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="1">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="1">
+        <v>37.299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1">
         <v>47</v>
       </c>
-      <c r="C6" s="3">
-        <v>1993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3">
-        <v>31.1</v>
-      </c>
-      <c r="C7" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3">
-        <v>45</v>
-      </c>
-      <c r="C8" s="3">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="3">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3">
-        <v>3963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>3998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="3">
-        <v>34</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="3">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="C14" s="3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" s="3">
-        <v>45</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1979</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="3">
-        <v>35</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="C18" s="3">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="3">
-        <v>55.9</v>
-      </c>
-      <c r="C19" s="3">
-        <v>1999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3">
-        <v>26.8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>1988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="3">
-        <v>68</v>
-      </c>
-      <c r="C21" s="3">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="3">
-        <v>74</v>
-      </c>
-      <c r="C22" s="3">
-        <v>1994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B23" s="3">
-        <v>43.5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" s="3">
-        <v>28</v>
-      </c>
-      <c r="C24" s="3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="3">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="3">
-        <v>28.5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>1992</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="3">
-        <v>61.1</v>
-      </c>
-      <c r="C27" s="3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" s="3">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="3">
-        <v>59</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="3">
-        <v>80</v>
-      </c>
-      <c r="C30" s="3">
-        <v>2006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="3">
-        <v>44.7</v>
-      </c>
-      <c r="C31" s="3">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="3">
-        <v>41</v>
-      </c>
-      <c r="C32" s="3">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="C33" s="3">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B34" s="3">
-        <v>50</v>
-      </c>
-      <c r="C34" s="3">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="3">
-        <v>54</v>
-      </c>
-      <c r="C35" s="3">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B36" s="3">
-        <v>29.1</v>
-      </c>
-      <c r="C36" s="3">
-        <v>1998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37" s="3">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="C37" s="3">
-        <v>2003</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="3">
-        <v>28</v>
-      </c>
-      <c r="C38" s="3">
-        <v>1997</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="3">
-        <v>47</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="3">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="1">
         <v>27.7</v>
       </c>
-      <c r="C40" s="3">
-        <v>1996</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B41" s="3">
-        <v>41.005405405405405</v>
-      </c>
-      <c r="C41" s="3">
-        <v>73962</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>41.00540451</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
 </worksheet>
